--- a/TestTable.xlsx
+++ b/TestTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>Testing</t>
   </si>
@@ -204,6 +204,21 @@
   </si>
   <si>
     <t>inside out</t>
+  </si>
+  <si>
+    <t>Bandits/Treasures in right places</t>
+  </si>
+  <si>
+    <t>Start game and see if the things are in the right places</t>
+  </si>
+  <si>
+    <t>Bandits and treasures all placed</t>
+  </si>
+  <si>
+    <t>Some bandits placed over treasure</t>
+  </si>
+  <si>
+    <t>Fix it</t>
   </si>
 </sst>
 </file>
@@ -543,14 +558,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="3" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
     <col min="4" max="4" width="80" customWidth="1"/>
     <col min="5" max="5" width="59.85546875" customWidth="1"/>
     <col min="6" max="63" width="38.5703125" customWidth="1"/>
@@ -1278,12 +1294,24 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
